--- a/data/Supra.xlsx
+++ b/data/Supra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucas\OneDrive\Documents\GitHub\phys_exp\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{897F5831-76D6-4199-85EE-5E49957F3C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C9085C1-2C67-480B-A91B-84DB1C38EEA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -318,11 +318,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="19">
     <cellStyle name="Accent" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1126,8 +1126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.2"/>
@@ -1138,18 +1138,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="15.6">
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6">
         <v>2</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
       <c r="O1" t="s">
         <v>11</v>
       </c>
@@ -1179,22 +1179,22 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4" t="s">
+      <c r="K2" s="6"/>
+      <c r="L2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="4"/>
+      <c r="M2" s="6"/>
       <c r="O2" s="1">
         <v>168</v>
       </c>
@@ -1361,10 +1361,10 @@
         <v>8</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="4"/>
+      <c r="D6" s="6"/>
       <c r="F6" s="1">
         <v>165</v>
       </c>
@@ -2919,10 +2919,10 @@
       </c>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
-      <c r="O43" s="5">
+      <c r="O43" s="4">
         <v>207</v>
       </c>
-      <c r="P43" s="6">
+      <c r="P43" s="5">
         <v>0</v>
       </c>
     </row>
